--- a/MEDIA/2998_拉亞直營營業額(2019-10-01~2019-10-31).xlsx
+++ b/MEDIA/2998_拉亞直營營業額(2019-10-01~2019-10-31).xlsx
@@ -514,61 +514,61 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>960</v>
+        <v>22839</v>
       </c>
       <c r="E3" t="n">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
+        <v>9391</v>
+      </c>
+      <c r="G3" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>67</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9218</v>
+      </c>
+      <c r="J3" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="n">
         <v>425</v>
       </c>
-      <c r="G3" t="n">
-        <v>44.3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-      <c r="I3" t="n">
-        <v>535</v>
-      </c>
-      <c r="J3" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>3805</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>16.7</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -580,10 +580,10 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="AA3" t="n">
-        <v>69</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4">
@@ -603,25 +603,25 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>765</v>
+        <v>20119</v>
       </c>
       <c r="E4" t="n">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="F4" t="n">
-        <v>505</v>
+        <v>9264</v>
       </c>
       <c r="G4" t="n">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="I4" t="n">
-        <v>170</v>
+        <v>5505</v>
       </c>
       <c r="J4" t="n">
-        <v>22.2</v>
+        <v>27.4</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -630,7 +630,7 @@
         <v>90</v>
       </c>
       <c r="M4" t="n">
-        <v>11.8</v>
+        <v>0.4</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -642,22 +642,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>4830</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>19</v>
+        <v>211</v>
       </c>
       <c r="AA4" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
@@ -692,34 +692,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1290</v>
+        <v>17416</v>
       </c>
       <c r="E5" t="n">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F5" t="n">
-        <v>495</v>
+        <v>8496</v>
       </c>
       <c r="G5" t="n">
-        <v>38.4</v>
+        <v>48.8</v>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="I5" t="n">
-        <v>795</v>
+        <v>4685</v>
       </c>
       <c r="J5" t="n">
-        <v>61.6</v>
+        <v>26.9</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -731,22 +731,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>3710</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>21.3</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="AA5" t="n">
-        <v>68</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
@@ -781,25 +781,25 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>935</v>
+        <v>20263</v>
       </c>
       <c r="E6" t="n">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="F6" t="n">
-        <v>450</v>
+        <v>10803</v>
       </c>
       <c r="G6" t="n">
-        <v>48.1</v>
+        <v>53.3</v>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="I6" t="n">
-        <v>485</v>
+        <v>5805</v>
       </c>
       <c r="J6" t="n">
-        <v>51.9</v>
+        <v>28.6</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>3575</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>17.6</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -847,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>20</v>
+        <v>221</v>
       </c>
       <c r="AA6" t="n">
-        <v>47</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
@@ -870,25 +870,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1715</v>
+        <v>24835</v>
       </c>
       <c r="E7" t="n">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="F7" t="n">
-        <v>830</v>
+        <v>11050</v>
       </c>
       <c r="G7" t="n">
-        <v>48.4</v>
+        <v>44.5</v>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="I7" t="n">
-        <v>885</v>
+        <v>7360</v>
       </c>
       <c r="J7" t="n">
-        <v>51.6</v>
+        <v>29.6</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>6425</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>25.9</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -936,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>22</v>
+        <v>232</v>
       </c>
       <c r="AA7" t="n">
-        <v>78</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
@@ -959,25 +959,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1269</v>
+        <v>28629</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="F8" t="n">
-        <v>300</v>
+        <v>14717</v>
       </c>
       <c r="G8" t="n">
-        <v>23.6</v>
+        <v>51.4</v>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="I8" t="n">
-        <v>969</v>
+        <v>5897</v>
       </c>
       <c r="J8" t="n">
-        <v>76.40000000000001</v>
+        <v>20.6</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -998,22 +998,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>7795</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c r="AA8" t="n">
-        <v>85</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9">
@@ -1048,25 +1048,25 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1290</v>
+        <v>21270</v>
       </c>
       <c r="E9" t="n">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="F9" t="n">
-        <v>815</v>
+        <v>11910</v>
       </c>
       <c r="G9" t="n">
-        <v>63.2</v>
+        <v>56</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="I9" t="n">
-        <v>475</v>
+        <v>4555</v>
       </c>
       <c r="J9" t="n">
-        <v>36.8</v>
+        <v>21.4</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1087,22 +1087,22 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>4675</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>20</v>
+        <v>212</v>
       </c>
       <c r="AA9" t="n">
-        <v>64</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -1137,34 +1137,34 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>980</v>
+        <v>19751</v>
       </c>
       <c r="E10" t="n">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="F10" t="n">
-        <v>575</v>
+        <v>10671</v>
       </c>
       <c r="G10" t="n">
-        <v>58.7</v>
+        <v>54</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="I10" t="n">
-        <v>385</v>
+        <v>5865</v>
       </c>
       <c r="J10" t="n">
-        <v>39.3</v>
+        <v>29.7</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1185,13 +1185,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="U10" t="n">
-        <v>20</v>
+        <v>3140</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>15.9</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>19</v>
+        <v>217</v>
       </c>
       <c r="AA10" t="n">
-        <v>52</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11">
@@ -1226,25 +1226,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1090</v>
+        <v>21261</v>
       </c>
       <c r="E11" t="n">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="F11" t="n">
-        <v>600</v>
+        <v>10761</v>
       </c>
       <c r="G11" t="n">
-        <v>55</v>
+        <v>50.6</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="I11" t="n">
-        <v>490</v>
+        <v>3905</v>
       </c>
       <c r="J11" t="n">
-        <v>45</v>
+        <v>18.4</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6595</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1292,10 +1292,10 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="AA11" t="n">
-        <v>61</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12">
@@ -1315,25 +1315,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>920</v>
+        <v>23875</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="F12" t="n">
-        <v>390</v>
+        <v>12407</v>
       </c>
       <c r="G12" t="n">
-        <v>42.4</v>
+        <v>52</v>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="I12" t="n">
-        <v>530</v>
+        <v>5423</v>
       </c>
       <c r="J12" t="n">
-        <v>57.6</v>
+        <v>22.7</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1363,13 +1363,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>6045</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>25.3</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="AA12" t="n">
-        <v>66</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
@@ -1404,25 +1404,25 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1129</v>
+        <v>21769</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="F13" t="n">
-        <v>300</v>
+        <v>11185</v>
       </c>
       <c r="G13" t="n">
-        <v>26.6</v>
+        <v>51.4</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="I13" t="n">
-        <v>790</v>
+        <v>6010</v>
       </c>
       <c r="J13" t="n">
-        <v>70</v>
+        <v>27.6</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1431,7 +1431,7 @@
         <v>39</v>
       </c>
       <c r="M13" t="n">
-        <v>3.5</v>
+        <v>0.2</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1452,13 +1452,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>4535</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1470,10 +1470,10 @@
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="AA13" t="n">
-        <v>94</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
@@ -1493,25 +1493,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1035</v>
+        <v>19807</v>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="F14" t="n">
-        <v>510</v>
+        <v>9807</v>
       </c>
       <c r="G14" t="n">
-        <v>49.3</v>
+        <v>49.5</v>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="I14" t="n">
-        <v>525</v>
+        <v>3810</v>
       </c>
       <c r="J14" t="n">
-        <v>50.7</v>
+        <v>19.2</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1532,22 +1532,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>355</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>5835</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>29.5</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1559,10 +1559,10 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="AA14" t="n">
-        <v>61</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
@@ -1582,61 +1582,61 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>660</v>
+        <v>29142</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="F15" t="n">
-        <v>330</v>
+        <v>12172</v>
       </c>
       <c r="G15" t="n">
-        <v>50</v>
+        <v>41.8</v>
       </c>
       <c r="H15" t="n">
+        <v>53</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6995</v>
+      </c>
+      <c r="J15" t="n">
+        <v>24</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>4</v>
       </c>
-      <c r="I15" t="n">
-        <v>330</v>
-      </c>
-      <c r="J15" t="n">
-        <v>50</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>9195</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>31.6</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>11</v>
+        <v>203</v>
       </c>
       <c r="AA15" t="n">
-        <v>60</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16">
@@ -1671,25 +1671,25 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>710</v>
+        <v>18506</v>
       </c>
       <c r="E16" t="n">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="F16" t="n">
-        <v>480</v>
+        <v>10586</v>
       </c>
       <c r="G16" t="n">
-        <v>67.59999999999999</v>
+        <v>57.2</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="I16" t="n">
-        <v>230</v>
+        <v>4620</v>
       </c>
       <c r="J16" t="n">
-        <v>32.4</v>
+        <v>25</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1719,13 +1719,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>3300</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>17.8</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1737,10 +1737,10 @@
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>15</v>
+        <v>187</v>
       </c>
       <c r="AA16" t="n">
-        <v>47</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
@@ -1760,25 +1760,25 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1585</v>
+        <v>21940</v>
       </c>
       <c r="E17" t="n">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="F17" t="n">
-        <v>850</v>
+        <v>11475</v>
       </c>
       <c r="G17" t="n">
-        <v>53.6</v>
+        <v>52.3</v>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="I17" t="n">
-        <v>735</v>
+        <v>6490</v>
       </c>
       <c r="J17" t="n">
-        <v>46.4</v>
+        <v>29.6</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1808,13 +1808,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>3975</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>18.1</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1826,10 +1826,10 @@
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>22</v>
+        <v>220</v>
       </c>
       <c r="AA17" t="n">
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -1849,25 +1849,25 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1160</v>
+        <v>23987</v>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="F18" t="n">
-        <v>355</v>
+        <v>12287</v>
       </c>
       <c r="G18" t="n">
-        <v>30.6</v>
+        <v>51.2</v>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="I18" t="n">
-        <v>805</v>
+        <v>6045</v>
       </c>
       <c r="J18" t="n">
-        <v>69.40000000000001</v>
+        <v>25.2</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>5655</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>23.6</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>18</v>
+        <v>225</v>
       </c>
       <c r="AA18" t="n">
-        <v>64</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19">
@@ -1938,25 +1938,25 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1490</v>
+        <v>19084</v>
       </c>
       <c r="E19" t="n">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="F19" t="n">
-        <v>605</v>
+        <v>9214</v>
       </c>
       <c r="G19" t="n">
-        <v>40.6</v>
+        <v>48.3</v>
       </c>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="I19" t="n">
-        <v>885</v>
+        <v>5690</v>
       </c>
       <c r="J19" t="n">
-        <v>59.4</v>
+        <v>29.8</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1986,13 +1986,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>4180</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>21.9</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2004,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="AA19" t="n">
-        <v>60</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20">
@@ -2027,25 +2027,25 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>460</v>
+        <v>22392</v>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>134</v>
       </c>
       <c r="F20" t="n">
-        <v>295</v>
+        <v>13662</v>
       </c>
       <c r="G20" t="n">
-        <v>64.09999999999999</v>
+        <v>61</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="I20" t="n">
-        <v>165</v>
+        <v>4285</v>
       </c>
       <c r="J20" t="n">
-        <v>35.9</v>
+        <v>19.1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2066,22 +2066,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>645</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2093,10 +2093,10 @@
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>9</v>
+        <v>217</v>
       </c>
       <c r="AA20" t="n">
-        <v>51</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -2116,25 +2116,25 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>810</v>
+        <v>25204</v>
       </c>
       <c r="E21" t="n">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="F21" t="n">
-        <v>715</v>
+        <v>14509</v>
       </c>
       <c r="G21" t="n">
-        <v>88.3</v>
+        <v>57.6</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="I21" t="n">
-        <v>95</v>
+        <v>5240</v>
       </c>
       <c r="J21" t="n">
-        <v>11.7</v>
+        <v>20.8</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2155,22 +2155,22 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>4495</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>17.8</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="AA21" t="n">
-        <v>62</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22">
@@ -2205,25 +2205,25 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1415</v>
+        <v>29698</v>
       </c>
       <c r="E22" t="n">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="F22" t="n">
-        <v>875</v>
+        <v>13078</v>
       </c>
       <c r="G22" t="n">
-        <v>61.8</v>
+        <v>44</v>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="I22" t="n">
-        <v>540</v>
+        <v>6575</v>
       </c>
       <c r="J22" t="n">
-        <v>38.2</v>
+        <v>22.1</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>8365</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>28.2</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2271,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="AA22" t="n">
-        <v>74</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23">
@@ -2294,25 +2294,25 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>925</v>
+        <v>20884</v>
       </c>
       <c r="E23" t="n">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="F23" t="n">
-        <v>565</v>
+        <v>10824</v>
       </c>
       <c r="G23" t="n">
-        <v>61.1</v>
+        <v>51.8</v>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="I23" t="n">
-        <v>360</v>
+        <v>5665</v>
       </c>
       <c r="J23" t="n">
-        <v>38.9</v>
+        <v>27.1</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2342,13 +2342,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>4395</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2360,10 +2360,10 @@
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="AA23" t="n">
-        <v>49</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
@@ -2383,34 +2383,34 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1939</v>
+        <v>19965</v>
       </c>
       <c r="E24" t="n">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="F24" t="n">
-        <v>449</v>
+        <v>11447</v>
       </c>
       <c r="G24" t="n">
-        <v>23.2</v>
+        <v>57.3</v>
       </c>
       <c r="H24" t="n">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="I24" t="n">
-        <v>845</v>
+        <v>4655</v>
       </c>
       <c r="J24" t="n">
-        <v>43.6</v>
+        <v>23.3</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2422,22 +2422,22 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="U24" t="n">
-        <v>645</v>
+        <v>3390</v>
       </c>
       <c r="V24" t="n">
-        <v>33.3</v>
+        <v>17</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2449,10 +2449,10 @@
         <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>22</v>
+        <v>205</v>
       </c>
       <c r="AA24" t="n">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25">
@@ -2472,25 +2472,25 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1030</v>
+        <v>19435</v>
       </c>
       <c r="E25" t="n">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="F25" t="n">
-        <v>640</v>
+        <v>10370</v>
       </c>
       <c r="G25" t="n">
-        <v>62.1</v>
+        <v>53.4</v>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="I25" t="n">
-        <v>390</v>
+        <v>5135</v>
       </c>
       <c r="J25" t="n">
-        <v>37.9</v>
+        <v>26.4</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2511,22 +2511,22 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1185</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>2745</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>14.1</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>13</v>
+        <v>189</v>
       </c>
       <c r="AA25" t="n">
-        <v>79</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
@@ -2561,25 +2561,25 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>920</v>
+        <v>22219</v>
       </c>
       <c r="E26" t="n">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="F26" t="n">
-        <v>380</v>
+        <v>10949</v>
       </c>
       <c r="G26" t="n">
-        <v>41.3</v>
+        <v>49.3</v>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="I26" t="n">
-        <v>540</v>
+        <v>6380</v>
       </c>
       <c r="J26" t="n">
-        <v>58.7</v>
+        <v>28.7</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2600,22 +2600,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>4785</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>21.5</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2627,10 +2627,10 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="AA26" t="n">
-        <v>66</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27">
@@ -2650,61 +2650,61 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>860</v>
+        <v>20697</v>
       </c>
       <c r="E27" t="n">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="F27" t="n">
-        <v>380</v>
+        <v>11132</v>
       </c>
       <c r="G27" t="n">
-        <v>44.2</v>
+        <v>53.8</v>
       </c>
       <c r="H27" t="n">
+        <v>64</v>
+      </c>
+      <c r="I27" t="n">
+        <v>6090</v>
+      </c>
+      <c r="J27" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
         <v>3</v>
       </c>
-      <c r="I27" t="n">
-        <v>480</v>
-      </c>
-      <c r="J27" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>415</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>3060</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>14.8</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2716,10 +2716,10 @@
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="AA27" t="n">
-        <v>61</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28">
@@ -2739,25 +2739,25 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1445</v>
+        <v>24255</v>
       </c>
       <c r="E28" t="n">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="F28" t="n">
-        <v>595</v>
+        <v>11005</v>
       </c>
       <c r="G28" t="n">
-        <v>41.2</v>
+        <v>45.4</v>
       </c>
       <c r="H28" t="n">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="I28" t="n">
-        <v>850</v>
+        <v>6385</v>
       </c>
       <c r="J28" t="n">
-        <v>58.8</v>
+        <v>26.3</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2787,13 +2787,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>6865</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>28.3</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2805,10 +2805,10 @@
         <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>22</v>
+        <v>198</v>
       </c>
       <c r="AA28" t="n">
-        <v>66</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29">
@@ -2828,25 +2828,25 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1705</v>
+        <v>31515</v>
       </c>
       <c r="E29" t="n">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="F29" t="n">
-        <v>640</v>
+        <v>15330</v>
       </c>
       <c r="G29" t="n">
-        <v>37.5</v>
+        <v>48.6</v>
       </c>
       <c r="H29" t="n">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="I29" t="n">
-        <v>1065</v>
+        <v>7340</v>
       </c>
       <c r="J29" t="n">
-        <v>62.5</v>
+        <v>23.3</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2867,22 +2867,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>8730</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>27.7</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2894,10 +2894,10 @@
         <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>18</v>
+        <v>219</v>
       </c>
       <c r="AA29" t="n">
-        <v>95</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30">
@@ -2917,25 +2917,25 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1510</v>
+        <v>19585</v>
       </c>
       <c r="E30" t="n">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="F30" t="n">
-        <v>925</v>
+        <v>10080</v>
       </c>
       <c r="G30" t="n">
-        <v>61.3</v>
+        <v>51.5</v>
       </c>
       <c r="H30" t="n">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="I30" t="n">
-        <v>585</v>
+        <v>5090</v>
       </c>
       <c r="J30" t="n">
-        <v>38.7</v>
+        <v>26</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2965,13 +2965,13 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>4415</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2983,10 +2983,10 @@
         <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>20</v>
+        <v>202</v>
       </c>
       <c r="AA30" t="n">
-        <v>76</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31">
@@ -3006,25 +3006,25 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>805</v>
+        <v>17831</v>
       </c>
       <c r="E31" t="n">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="F31" t="n">
-        <v>455</v>
+        <v>8801</v>
       </c>
       <c r="G31" t="n">
-        <v>56.5</v>
+        <v>49.4</v>
       </c>
       <c r="H31" t="n">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="I31" t="n">
-        <v>350</v>
+        <v>4715</v>
       </c>
       <c r="J31" t="n">
-        <v>43.5</v>
+        <v>26.4</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3054,13 +3054,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>4315</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>24.2</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3072,10 +3072,10 @@
         <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="AA31" t="n">
-        <v>47</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32">
@@ -3095,62 +3095,62 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1255</v>
+        <v>17961</v>
       </c>
       <c r="E32" t="n">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="F32" t="n">
-        <v>260</v>
+        <v>8401</v>
       </c>
       <c r="G32" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="H32" t="n">
+        <v>55</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5760</v>
+      </c>
+      <c r="J32" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>75</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="T32" t="n">
+        <v>27</v>
+      </c>
+      <c r="U32" t="n">
+        <v>3725</v>
+      </c>
+      <c r="V32" t="n">
         <v>20.7</v>
       </c>
-      <c r="H32" t="n">
-        <v>10</v>
-      </c>
-      <c r="I32" t="n">
-        <v>995</v>
-      </c>
-      <c r="J32" t="n">
-        <v>79.3</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c r="AA32" t="n">
-        <v>63</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33">
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1651</v>
+        <v>18600</v>
       </c>
       <c r="E33" t="n">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="F33" t="n">
-        <v>975</v>
+        <v>8664</v>
       </c>
       <c r="G33" t="n">
-        <v>59.1</v>
+        <v>46.6</v>
       </c>
       <c r="H33" t="n">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="I33" t="n">
-        <v>595</v>
+        <v>5055</v>
       </c>
       <c r="J33" t="n">
-        <v>36</v>
+        <v>27.2</v>
       </c>
       <c r="K33" t="n">
         <v>1</v>
@@ -3211,7 +3211,7 @@
         <v>81</v>
       </c>
       <c r="M33" t="n">
-        <v>4.9</v>
+        <v>0.4</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -3223,22 +3223,22 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>4425</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>23.8</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3250,10 +3250,10 @@
         <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>27</v>
+        <v>186</v>
       </c>
       <c r="AA33" t="n">
-        <v>61</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
@@ -3265,34 +3265,34 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>35713</v>
+        <v>684734</v>
       </c>
       <c r="E34" t="n">
-        <v>356</v>
+        <v>3425</v>
       </c>
       <c r="F34" t="n">
-        <v>16964</v>
+        <v>344448</v>
       </c>
       <c r="G34" t="n">
-        <v>47.5</v>
+        <v>50.3</v>
       </c>
       <c r="H34" t="n">
-        <v>185</v>
+        <v>1813</v>
       </c>
       <c r="I34" t="n">
-        <v>17874</v>
+        <v>176248</v>
       </c>
       <c r="J34" t="n">
-        <v>50</v>
+        <v>25.7</v>
       </c>
       <c r="K34" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L34" t="n">
-        <v>210</v>
+        <v>363</v>
       </c>
       <c r="M34" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -3304,22 +3304,22 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>8895</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="T34" t="n">
-        <v>2</v>
+        <v>948</v>
       </c>
       <c r="U34" t="n">
-        <v>665</v>
+        <v>154780</v>
       </c>
       <c r="V34" t="n">
-        <v>1.9</v>
+        <v>22.6</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="Z34" t="n">
-        <v>547</v>
+        <v>6242</v>
       </c>
       <c r="AA34" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
